--- a/public/data/profit/profit_table_sudan.xlsx
+++ b/public/data/profit/profit_table_sudan.xlsx
@@ -3022,13 +3022,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>-14.32</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>-14.49</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>-14.43</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -6222,13 +6222,13 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>-5.63</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>-7.53</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -6240,22 +6240,22 @@
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>-20.5</v>
+        <v>0</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>-4.56</v>
+        <v>0</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>-4.6</v>
+        <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>-4.33</v>
+        <v>0</v>
       </c>
       <c r="R62" t="n">
         <v>0</v>
@@ -6264,7 +6264,7 @@
         <v>0</v>
       </c>
       <c r="T62" t="n">
-        <v>-4.61</v>
+        <v>0</v>
       </c>
       <c r="U62" t="n">
         <v>0</v>
@@ -6282,7 +6282,7 @@
         <v>0</v>
       </c>
       <c r="Z62" t="n">
-        <v>-4.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -6720,7 +6720,7 @@
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>-7.85</v>
+        <v>0</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
@@ -7022,7 +7022,7 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>-9.32</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -7040,7 +7040,7 @@
         <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>-8.43</v>
+        <v>0</v>
       </c>
       <c r="M72" t="n">
         <v>0</v>
@@ -7280,7 +7280,7 @@
         <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>-2.64</v>
+        <v>0</v>
       </c>
       <c r="M75" t="n">
         <v>0</v>
@@ -7440,7 +7440,7 @@
         <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>-0.37</v>
+        <v>0</v>
       </c>
       <c r="M77" t="n">
         <v>0</v>
